--- a/Project 1/PokemonGame/MulliganOutputGraph.xlsx
+++ b/Project 1/PokemonGame/MulliganOutputGraph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 1\PokemonGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CCC3A2-A76E-45C8-A916-F2021C291B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0225EB9-CA65-4532-A652-D5F720F8DB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{35C9CC32-EFBC-4BED-B73B-BC8AD26D30C7}"/>
   </bookViews>
@@ -190,184 +190,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,136 +382,136 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89019999999999999</c:v>
+                  <c:v>0.88519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79090000000000005</c:v>
+                  <c:v>0.78910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69330000000000003</c:v>
+                  <c:v>0.69040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61229999999999996</c:v>
+                  <c:v>0.61980000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53769999999999996</c:v>
+                  <c:v>0.54310000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.4753</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41539999999999999</c:v>
+                  <c:v>0.42359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37209999999999999</c:v>
+                  <c:v>0.37990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32079999999999997</c:v>
+                  <c:v>0.3201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28089999999999998</c:v>
+                  <c:v>0.2762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24390000000000001</c:v>
+                  <c:v>0.2412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20899999999999999</c:v>
+                  <c:v>0.21340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1782</c:v>
+                  <c:v>0.17649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15870000000000001</c:v>
+                  <c:v>0.15690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13450000000000001</c:v>
+                  <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1118</c:v>
+                  <c:v>0.11609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1499999999999998E-2</c:v>
+                  <c:v>0.10050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9299999999999995E-2</c:v>
+                  <c:v>8.1600000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7199999999999996E-2</c:v>
+                  <c:v>7.0499999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7200000000000001E-2</c:v>
+                  <c:v>5.4300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.7500000000000001E-2</c:v>
+                  <c:v>5.2400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.2200000000000001E-2</c:v>
+                  <c:v>4.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>3.4799999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.9100000000000001E-2</c:v>
+                  <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1899999999999999E-2</c:v>
+                  <c:v>2.47E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.9400000000000001E-2</c:v>
+                  <c:v>1.9199999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.49E-2</c:v>
+                  <c:v>1.47E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.17E-2</c:v>
+                  <c:v>1.0200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.7999999999999997E-3</c:v>
+                  <c:v>8.3000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.8999999999999999E-3</c:v>
+                  <c:v>7.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.8999999999999999E-3</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.7000000000000002E-3</c:v>
+                  <c:v>6.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.1000000000000003E-3</c:v>
+                  <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>2.5999999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.8999999999999998E-3</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2000000000000001E-3</c:v>
+                  <c:v>1.5E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
                   <c:v>1.1000000000000001E-3</c:v>
                 </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>2.0000000000000001E-4</c:v>
+                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
                   <c:v>2.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>2.9999999999999997E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>2.9999999999999997E-4</c:v>
+                  <c:v>2.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
                   <c:v>1E-4</c:v>
@@ -520,7 +520,7 @@
                   <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>1E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -1779,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED5795-FEBF-4F6C-8653-F780EFDF243D}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1808,335 +1808,335 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.89019999999999999</v>
+        <v>0.88519999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.79090000000000005</v>
+        <v>0.78910000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.69330000000000003</v>
+        <v>0.69040000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.61229999999999996</v>
+        <v>0.61980000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.53769999999999996</v>
+        <v>0.54310000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.47599999999999998</v>
+        <v>0.4753</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.41539999999999999</v>
+        <v>0.42359999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.37209999999999999</v>
+        <v>0.37990000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.32079999999999997</v>
+        <v>0.3201</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.28089999999999998</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>0.24390000000000001</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0.20899999999999999</v>
+        <v>0.21340000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1782</v>
+        <v>0.17649999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0.15870000000000001</v>
+        <v>0.15690000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0.13450000000000001</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1118</v>
+        <v>0.11609999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>9.1499999999999998E-2</v>
+        <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>7.9299999999999995E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>6.7199999999999996E-2</v>
+        <v>7.0499999999999993E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>5.7200000000000001E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>4.7500000000000001E-2</v>
+        <v>5.2400000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>4.2200000000000001E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>3.6999999999999998E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>2.9100000000000001E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2.1899999999999999E-2</v>
+        <v>2.47E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>1.9400000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>1.49E-2</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>1.17E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>9.7999999999999997E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>8.8999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>5.8999999999999999E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>5.7000000000000002E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>4.1000000000000003E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>2.5999999999999999E-3</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>2.8999999999999998E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>2.2000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>1.9E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1.1000000000000001E-3</v>
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>2.0000000000000001E-4</v>
@@ -2144,23 +2144,23 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>1E-4</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>1E-4</v>
@@ -2176,15 +2176,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2272,9 +2272,17 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>0</v>
       </c>
     </row>
